--- a/data_year/zb/金融业/金融机构人民币信贷资金平衡表(资金来源).xlsx
+++ b/data_year/zb/金融业/金融机构人民币信贷资金平衡表(资金来源).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,666 +488,414 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133325.32</v>
+        <v>805879.09</v>
       </c>
       <c r="C2" t="n">
-        <v>123804.35</v>
+        <v>718237.9300000001</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>44093.73</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>244495.62</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6465.3510788028</v>
+      </c>
       <c r="H2" t="n">
-        <v>3508.09</v>
+        <v>25454.97</v>
       </c>
       <c r="I2" t="n">
-        <v>368.3</v>
+        <v>720.08</v>
       </c>
       <c r="J2" t="n">
-        <v>14652.65</v>
+        <v>44628.17</v>
       </c>
       <c r="K2" t="n">
-        <v>30.19</v>
+        <v>13526.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153539.78</v>
+        <v>913226.33</v>
       </c>
       <c r="C3" t="n">
-        <v>143617.17</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>809368.332268253</v>
+      </c>
+      <c r="D3" t="n">
+        <v>353536.429373464</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1570.1383872952</v>
+      </c>
       <c r="F3" t="n">
-        <v>51546.63</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>410912.047525933</v>
+      </c>
+      <c r="G3" t="n">
+        <v>308.472377897</v>
+      </c>
       <c r="H3" t="n">
-        <v>3369.75</v>
+        <v>26223.0684065455</v>
       </c>
       <c r="I3" t="n">
-        <v>484.51</v>
+        <v>776.46</v>
       </c>
       <c r="J3" t="n">
-        <v>15688.8</v>
+        <v>50748.4614963934</v>
       </c>
       <c r="K3" t="n">
-        <v>51.38</v>
+        <v>10038.831938316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184024.52</v>
+        <v>1024067.49</v>
       </c>
       <c r="C4" t="n">
-        <v>170917.4</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>917554.77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>411002.77</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1632.54</v>
+      </c>
       <c r="F4" t="n">
-        <v>60028.57</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>458821.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>226.86</v>
+      </c>
       <c r="H4" t="n">
-        <v>3481.9</v>
+        <v>24426.41</v>
       </c>
       <c r="I4" t="n">
-        <v>423.05</v>
+        <v>827.6799999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>17278.03</v>
+        <v>54659.77</v>
       </c>
       <c r="K4" t="n">
-        <v>90.34</v>
+        <v>8487.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>225313.26</v>
+        <v>1174666.17</v>
       </c>
       <c r="C5" t="n">
-        <v>208055.59</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>1043846.86451891</v>
+      </c>
+      <c r="D5" t="n">
+        <v>466502</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1661</v>
+      </c>
       <c r="F5" t="n">
-        <v>72487.05</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>520826</v>
+      </c>
+      <c r="G5" t="n">
+        <v>354</v>
+      </c>
       <c r="H5" t="n">
-        <v>5126.94</v>
+        <v>30133.47</v>
       </c>
       <c r="I5" t="n">
-        <v>482.57</v>
+        <v>854.45</v>
       </c>
       <c r="J5" t="n">
-        <v>19745.99</v>
+        <v>58574.44</v>
       </c>
       <c r="K5" t="n">
-        <v>2226.27</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261910.8</v>
+        <v>1323453.03</v>
       </c>
       <c r="C6" t="n">
-        <v>241424.32</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>1138644.64136227</v>
+      </c>
+      <c r="D6" t="n">
+        <v>507831</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1098</v>
+      </c>
       <c r="F6" t="n">
-        <v>84670.57000000001</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>565249</v>
+      </c>
+      <c r="G6" t="n">
+        <v>442</v>
+      </c>
       <c r="H6" t="n">
-        <v>6236.17</v>
+        <v>35664.48</v>
       </c>
       <c r="I6" t="n">
-        <v>562.2859656994</v>
+        <v>867.1799999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>21468.3</v>
+        <v>60259.53</v>
       </c>
       <c r="K6" t="n">
-        <v>3954.67</v>
+        <v>9843.200000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302042.84</v>
+        <v>1541203.7</v>
       </c>
       <c r="C7" t="n">
-        <v>287169.52</v>
+        <v>1357021.61</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>96143.74000000001</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>7996.26</v>
+        <v>34452.89</v>
       </c>
       <c r="I7" t="n">
-        <v>641.5700000000001</v>
+        <v>823.16</v>
       </c>
       <c r="J7" t="n">
-        <v>24031.67</v>
+        <v>63216.58</v>
       </c>
       <c r="K7" t="n">
-        <v>5672.79</v>
+        <v>10061.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>365168.252634129</v>
+        <v>1759952.28</v>
       </c>
       <c r="C8" t="n">
-        <v>335459.78</v>
+        <v>1505863.83</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>113215.69</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>10926.68</v>
+        <v>35292.31</v>
       </c>
       <c r="I8" t="n">
-        <v>926.34</v>
+        <v>2406.79</v>
       </c>
       <c r="J8" t="n">
-        <v>27072.62</v>
+        <v>68303.87</v>
       </c>
       <c r="K8" t="n">
-        <v>6483.35</v>
+        <v>31578.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>454267.97</v>
+        <v>1931934.41</v>
       </c>
       <c r="C9" t="n">
-        <v>389371.15</v>
+        <v>1641044.22</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>138673.7</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>17632.46</v>
+        <v>41134.49</v>
       </c>
       <c r="I9" t="n">
-        <v>947.28</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>30334.32</v>
+        <v>70645.60000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>11505.04</v>
+        <v>47999.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538405.59</v>
+        <v>2109164</v>
       </c>
       <c r="C10" t="n">
-        <v>466203.32</v>
+        <v>1775225.73</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>157632.21</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>18040.44</v>
+        <v>40538.8</v>
       </c>
       <c r="I10" t="n">
-        <v>732.59</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>30218.96</v>
+        <v>73208</v>
       </c>
       <c r="K10" t="n">
-        <v>20852.48</v>
+        <v>65433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>681874.78</v>
+        <v>2317003.06</v>
       </c>
       <c r="C11" t="n">
-        <v>597741.1</v>
+        <v>1928785.33</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>217109.99</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>22411.49</v>
+        <v>40840.17</v>
       </c>
       <c r="I11" t="n">
-        <v>761.72</v>
+        <v>5.91</v>
       </c>
       <c r="J11" t="n">
-        <v>38245.97</v>
+        <v>77189.47</v>
       </c>
       <c r="K11" t="n">
-        <v>16203.41</v>
+        <v>82924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>805879.09</v>
+        <v>2574701</v>
       </c>
       <c r="C12" t="n">
-        <v>718237.9300000001</v>
+        <v>2125720.88</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>244495.62</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6465.3510788028</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>25454.97</v>
+        <v>44771.23</v>
       </c>
       <c r="I12" t="n">
-        <v>720.08</v>
+        <v>5.59</v>
       </c>
       <c r="J12" t="n">
-        <v>44628.17</v>
+        <v>84314.53</v>
       </c>
       <c r="K12" t="n">
-        <v>13526.85</v>
+        <v>106117.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>913226.33</v>
+        <v>2831289.23</v>
       </c>
       <c r="C13" t="n">
-        <v>809368.332268253</v>
-      </c>
-      <c r="D13" t="n">
-        <v>353536.429373464</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1570.1383872952</v>
-      </c>
-      <c r="F13" t="n">
-        <v>410912.047525933</v>
-      </c>
-      <c r="G13" t="n">
-        <v>308.472377897</v>
-      </c>
+        <v>2322500.4</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>26223.0684065455</v>
+        <v>50388.7</v>
       </c>
       <c r="I13" t="n">
-        <v>776.46</v>
+        <v>5.38</v>
       </c>
       <c r="J13" t="n">
-        <v>50748.4614963934</v>
+        <v>90825.14999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>10038.831938316</v>
+        <v>122953.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1024067.49</v>
+        <v>3121814.5</v>
       </c>
       <c r="C14" t="n">
-        <v>917554.77</v>
-      </c>
-      <c r="D14" t="n">
-        <v>411002.77</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1632.54</v>
-      </c>
-      <c r="F14" t="n">
-        <v>458821.04</v>
-      </c>
-      <c r="G14" t="n">
-        <v>226.86</v>
-      </c>
+        <v>2584998.23</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>24426.41</v>
+        <v>50012.92</v>
       </c>
       <c r="I14" t="n">
-        <v>827.6799999999999</v>
+        <v>5.04</v>
       </c>
       <c r="J14" t="n">
-        <v>54659.77</v>
+        <v>104706.03</v>
       </c>
       <c r="K14" t="n">
-        <v>8487.57</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1174666.17</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1043846.86451891</v>
-      </c>
-      <c r="D15" t="n">
-        <v>466502</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1661</v>
-      </c>
-      <c r="F15" t="n">
-        <v>520826</v>
-      </c>
-      <c r="G15" t="n">
-        <v>354</v>
-      </c>
-      <c r="H15" t="n">
-        <v>30133.47</v>
-      </c>
-      <c r="I15" t="n">
-        <v>854.45</v>
-      </c>
-      <c r="J15" t="n">
-        <v>58574.44</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6681</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1323453.03</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1138644.64136227</v>
-      </c>
-      <c r="D16" t="n">
-        <v>507831</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1098</v>
-      </c>
-      <c r="F16" t="n">
-        <v>565249</v>
-      </c>
-      <c r="G16" t="n">
-        <v>442</v>
-      </c>
-      <c r="H16" t="n">
-        <v>35664.48</v>
-      </c>
-      <c r="I16" t="n">
-        <v>867.1799999999999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>60259.53</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9843.200000000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1541203.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1357021.61</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>34452.89</v>
-      </c>
-      <c r="I17" t="n">
-        <v>823.16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>63216.58</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10061.8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1759952.28</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1505863.83</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>35292.31</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2406.79</v>
-      </c>
-      <c r="J18" t="n">
-        <v>68303.87</v>
-      </c>
-      <c r="K18" t="n">
-        <v>31578.87</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1931934.41</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1641044.22</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>41134.49</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>70645.60000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>47999.58</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2109164</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1775225.73</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>40538.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>73208</v>
-      </c>
-      <c r="K20" t="n">
-        <v>65433</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2317003</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1928785.33</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>40840.17</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>77189.4745230608</v>
-      </c>
-      <c r="K21" t="n">
-        <v>82923.9983974308</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2574701.00495831</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2125720.88</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>44771.23</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.58537393530045</v>
-      </c>
-      <c r="J22" t="n">
-        <v>84314.5339956892</v>
-      </c>
-      <c r="K22" t="n">
-        <v>106117.037890529</v>
+        <v>126587.11</v>
       </c>
     </row>
   </sheetData>
